--- a/ahieu - litte - 2.xlsx
+++ b/ahieu - litte - 2.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="orders_export_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -111,12 +106,6 @@
     <t>partner</t>
   </si>
   <si>
-    <t>adung</t>
-  </si>
-  <si>
-    <t>atuan</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
@@ -126,9 +115,6 @@
     <t>phone Case Type</t>
   </si>
   <si>
-    <t>phoneCase</t>
-  </si>
-  <si>
     <t xml:space="preserve"> iPhone X</t>
   </si>
   <si>
@@ -150,22 +136,31 @@
     <t>partner Type</t>
   </si>
   <si>
-    <t>anam</t>
-  </si>
-  <si>
-    <t>ht0014</t>
-  </si>
-  <si>
-    <t>ht0015</t>
-  </si>
-  <si>
-    <t>ht0016</t>
+    <t>aluyen</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>tracking Number</t>
+  </si>
+  <si>
+    <t>all1234</t>
+  </si>
+  <si>
+    <t>all1235</t>
+  </si>
+  <si>
+    <t>all1236</t>
+  </si>
+  <si>
+    <t>all1237</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,7 +769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -809,7 +804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -986,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -994,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +1013,11 @@
     <col min="16" max="16" width="18.42578125" style="2" customWidth="1"/>
     <col min="17" max="17" width="74.85546875" style="2" customWidth="1"/>
     <col min="18" max="18" width="50.28515625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1029,10 +1025,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -1074,24 +1070,27 @@
         <v>2</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43720</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1121,27 +1120,27 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43721</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -1174,27 +1173,27 @@
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43722</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1227,10 +1226,63 @@
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43722</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>37</v>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>91306</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1">
+        <v>8183262941</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ahieu - litte - 2.xlsx
+++ b/ahieu - litte - 2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -155,12 +160,24 @@
   </si>
   <si>
     <t>all1237</t>
+  </si>
+  <si>
+    <t>ck2001</t>
+  </si>
+  <si>
+    <t>ck2002</t>
+  </si>
+  <si>
+    <t>ck2003</t>
+  </si>
+  <si>
+    <t>ck2004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -804,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -981,7 +998,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,28 +1008,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="2"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="74.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="50.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="55.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" style="2" customWidth="1"/>
     <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1125,6 +1144,9 @@
       <c r="R2" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1178,6 +1200,9 @@
       <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1231,6 +1256,9 @@
       <c r="R4" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1283,6 +1311,9 @@
       </c>
       <c r="R5" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ahieu - litte - 2.xlsx
+++ b/ahieu - litte - 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -111,15 +111,6 @@
     <t>partner</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>luminous</t>
-  </si>
-  <si>
-    <t>phone Case Type</t>
-  </si>
-  <si>
     <t xml:space="preserve"> iPhone X</t>
   </si>
   <si>
@@ -147,38 +138,23 @@
     <t>dress</t>
   </si>
   <si>
-    <t>tracking Number</t>
-  </si>
-  <si>
-    <t>all1234</t>
-  </si>
-  <si>
-    <t>all1235</t>
-  </si>
-  <si>
-    <t>all1236</t>
-  </si>
-  <si>
-    <t>all1237</t>
-  </si>
-  <si>
-    <t>ck2001</t>
-  </si>
-  <si>
-    <t>ck2002</t>
-  </si>
-  <si>
-    <t>ck2003</t>
-  </si>
-  <si>
-    <t>ck2004</t>
+    <t>dr1001</t>
+  </si>
+  <si>
+    <t>dr1002</t>
+  </si>
+  <si>
+    <t>dr1003</t>
+  </si>
+  <si>
+    <t>dr1004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +291,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -668,7 +637,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,9 +646,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1006,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,303 +983,271 @@
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="55.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="24.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="55.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43750</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>331038</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1">
+        <v>98515422</v>
+      </c>
+      <c r="M2" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="N2" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43751</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43752</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>91306</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8183262941</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43753</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43720</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1">
-        <v>331038</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1">
-        <v>98515422</v>
-      </c>
-      <c r="N2" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>91306</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8183262941</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="N5" s="1">
         <v>5</v>
       </c>
-      <c r="P2" s="2">
+      <c r="O5" s="2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>43721</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>43722</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="P5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1">
-        <v>91306</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="1">
-        <v>8183262941</v>
-      </c>
-      <c r="N4" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>43722</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1">
-        <v>91306</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1">
-        <v>8183262941</v>
-      </c>
-      <c r="N5" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ahieu - litte - 2.xlsx
+++ b/ahieu - litte - 2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP COMPUTER\Desktop\checkingV1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
@@ -1909,7 +1914,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2720,7 +2725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2730,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A614" sqref="A202:XFD614"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:XFD201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ahieu - litte - 2.xlsx
+++ b/ahieu - litte - 2.xlsx
@@ -492,9 +492,6 @@
     <t xml:space="preserve">#9P59350	</t>
   </si>
   <si>
-    <t xml:space="preserve">#9P59352/ #9P59353	</t>
-  </si>
-  <si>
     <t xml:space="preserve">#MJ10070	</t>
   </si>
   <si>
@@ -1909,6 +1906,9 @@
   </si>
   <si>
     <t>Luminous Glow Phone case iPhone Samsung dah231012</t>
+  </si>
+  <si>
+    <t>#9P59352</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2548,7 +2548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201:XFD201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,7 +2772,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3028,7 +3028,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>30</v>
@@ -3078,7 +3078,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>30</v>
@@ -3128,7 +3128,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>24</v>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>30</v>
@@ -3178,7 +3178,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>24</v>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>30</v>
@@ -3228,7 +3228,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>24</v>
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>30</v>
@@ -3278,7 +3278,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>24</v>
@@ -3305,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>30</v>
@@ -3328,7 +3328,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>24</v>
@@ -3355,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>30</v>
@@ -3378,7 +3378,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>24</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>30</v>
@@ -3428,7 +3428,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>24</v>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>30</v>
@@ -3478,7 +3478,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>24</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>30</v>
@@ -3528,7 +3528,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>24</v>
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>30</v>
@@ -3578,7 +3578,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>24</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>30</v>
@@ -3628,7 +3628,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>24</v>
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>30</v>
@@ -3678,7 +3678,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>24</v>
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>30</v>
@@ -3728,7 +3728,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>30</v>
@@ -3778,7 +3778,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>24</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>30</v>
@@ -3828,7 +3828,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>24</v>
@@ -3855,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>30</v>
@@ -3878,7 +3878,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>24</v>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>30</v>
@@ -3928,7 +3928,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>24</v>
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>30</v>
@@ -3978,7 +3978,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>24</v>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>30</v>
@@ -4028,7 +4028,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>24</v>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>30</v>
@@ -4078,7 +4078,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>24</v>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>30</v>
@@ -4128,7 +4128,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>24</v>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>30</v>
@@ -4178,7 +4178,7 @@
         <v>22</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>24</v>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>30</v>
@@ -4228,7 +4228,7 @@
         <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>24</v>
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>30</v>
@@ -4278,7 +4278,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>24</v>
@@ -4305,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>30</v>
@@ -4328,7 +4328,7 @@
         <v>22</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>24</v>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>30</v>
@@ -4378,7 +4378,7 @@
         <v>22</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>24</v>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>30</v>
@@ -4428,7 +4428,7 @@
         <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>24</v>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>30</v>
@@ -4478,7 +4478,7 @@
         <v>22</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>24</v>
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>30</v>
@@ -4528,7 +4528,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>24</v>
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>30</v>
@@ -4578,7 +4578,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>24</v>
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>30</v>
@@ -4628,7 +4628,7 @@
         <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>24</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>30</v>
@@ -4678,7 +4678,7 @@
         <v>22</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>24</v>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>30</v>
@@ -4728,7 +4728,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>24</v>
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>30</v>
@@ -4778,7 +4778,7 @@
         <v>22</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>24</v>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>30</v>
@@ -4828,7 +4828,7 @@
         <v>22</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>24</v>
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>30</v>
@@ -4878,7 +4878,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>24</v>
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>30</v>
@@ -4928,7 +4928,7 @@
         <v>22</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>24</v>
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>30</v>
@@ -4978,7 +4978,7 @@
         <v>22</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>24</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>30</v>
@@ -5028,7 +5028,7 @@
         <v>22</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>24</v>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>30</v>
@@ -5078,7 +5078,7 @@
         <v>22</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>24</v>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>30</v>
@@ -5128,7 +5128,7 @@
         <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>24</v>
@@ -5155,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>30</v>
@@ -5178,7 +5178,7 @@
         <v>22</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>24</v>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>30</v>
@@ -5228,7 +5228,7 @@
         <v>22</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>24</v>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>30</v>
@@ -5278,7 +5278,7 @@
         <v>22</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>24</v>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>30</v>
@@ -5328,7 +5328,7 @@
         <v>22</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>24</v>
@@ -5355,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>30</v>
@@ -5378,7 +5378,7 @@
         <v>22</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>24</v>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>30</v>
@@ -5428,7 +5428,7 @@
         <v>22</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>24</v>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>30</v>
@@ -5478,7 +5478,7 @@
         <v>22</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>24</v>
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>30</v>
@@ -5528,7 +5528,7 @@
         <v>22</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>24</v>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>30</v>
@@ -5578,7 +5578,7 @@
         <v>22</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>24</v>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>30</v>
@@ -5628,7 +5628,7 @@
         <v>22</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>24</v>
@@ -5655,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>30</v>
@@ -5678,7 +5678,7 @@
         <v>22</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>24</v>
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>30</v>
@@ -5728,7 +5728,7 @@
         <v>22</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>24</v>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>30</v>
@@ -5778,7 +5778,7 @@
         <v>22</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>24</v>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>30</v>
@@ -5828,7 +5828,7 @@
         <v>22</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>24</v>
@@ -5855,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>30</v>
@@ -5878,7 +5878,7 @@
         <v>22</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>24</v>
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>30</v>
@@ -5928,7 +5928,7 @@
         <v>22</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>24</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>30</v>
@@ -5978,7 +5978,7 @@
         <v>22</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>24</v>
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>30</v>
@@ -6028,7 +6028,7 @@
         <v>22</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>24</v>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>30</v>
@@ -6078,7 +6078,7 @@
         <v>22</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>24</v>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>30</v>
@@ -6128,7 +6128,7 @@
         <v>22</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>24</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>30</v>
@@ -6178,7 +6178,7 @@
         <v>22</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>24</v>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>30</v>
@@ -6228,7 +6228,7 @@
         <v>22</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>24</v>
@@ -6255,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>30</v>
@@ -6278,7 +6278,7 @@
         <v>22</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>24</v>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>30</v>
@@ -6328,7 +6328,7 @@
         <v>22</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>24</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>30</v>
@@ -6378,7 +6378,7 @@
         <v>22</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>24</v>
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>30</v>
@@ -6428,7 +6428,7 @@
         <v>22</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>24</v>
@@ -6455,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>30</v>
@@ -6478,7 +6478,7 @@
         <v>22</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>24</v>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>30</v>
@@ -6528,7 +6528,7 @@
         <v>22</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>24</v>
@@ -6555,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>30</v>
@@ -6578,7 +6578,7 @@
         <v>22</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>24</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>30</v>
@@ -6628,7 +6628,7 @@
         <v>22</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>24</v>
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>30</v>
@@ -6678,7 +6678,7 @@
         <v>22</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>24</v>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>30</v>
@@ -6728,7 +6728,7 @@
         <v>22</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>24</v>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>30</v>
@@ -6778,7 +6778,7 @@
         <v>22</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>24</v>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>30</v>
@@ -6828,7 +6828,7 @@
         <v>22</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>24</v>
@@ -6855,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>30</v>
@@ -6878,7 +6878,7 @@
         <v>22</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>24</v>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>30</v>
@@ -6928,7 +6928,7 @@
         <v>22</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>24</v>
@@ -6955,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>30</v>
@@ -6978,7 +6978,7 @@
         <v>22</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>24</v>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>30</v>
@@ -7028,7 +7028,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>24</v>
@@ -7055,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>30</v>
@@ -7078,7 +7078,7 @@
         <v>22</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>24</v>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>30</v>
@@ -7128,7 +7128,7 @@
         <v>22</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>24</v>
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>30</v>
@@ -7178,7 +7178,7 @@
         <v>22</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>24</v>
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>30</v>
@@ -7228,7 +7228,7 @@
         <v>22</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>24</v>
@@ -7255,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>30</v>
@@ -7278,7 +7278,7 @@
         <v>22</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>24</v>
@@ -7305,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>30</v>
@@ -7328,7 +7328,7 @@
         <v>22</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>24</v>
@@ -7355,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>30</v>
@@ -7378,7 +7378,7 @@
         <v>22</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>24</v>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q93" s="2" t="s">
         <v>30</v>
@@ -7428,7 +7428,7 @@
         <v>22</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>24</v>
@@ -7455,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>30</v>
@@ -7478,7 +7478,7 @@
         <v>22</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>24</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>30</v>
@@ -7528,7 +7528,7 @@
         <v>22</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>30</v>
@@ -7578,7 +7578,7 @@
         <v>22</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>24</v>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>30</v>
@@ -7628,7 +7628,7 @@
         <v>22</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>24</v>
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>30</v>
@@ -7678,7 +7678,7 @@
         <v>22</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>24</v>
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>30</v>
@@ -7728,7 +7728,7 @@
         <v>22</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>24</v>
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>30</v>
@@ -7778,7 +7778,7 @@
         <v>22</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>24</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>30</v>
@@ -7828,7 +7828,7 @@
         <v>22</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>24</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>30</v>
@@ -7878,7 +7878,7 @@
         <v>22</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>24</v>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>30</v>
@@ -7928,7 +7928,7 @@
         <v>22</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>24</v>
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>30</v>
@@ -7978,7 +7978,7 @@
         <v>22</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>24</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>30</v>
@@ -8028,7 +8028,7 @@
         <v>22</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>24</v>
@@ -8055,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>30</v>
@@ -8078,7 +8078,7 @@
         <v>22</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>24</v>
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>30</v>
@@ -8128,7 +8128,7 @@
         <v>22</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>24</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>30</v>
@@ -8178,7 +8178,7 @@
         <v>22</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>24</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>30</v>
@@ -8228,7 +8228,7 @@
         <v>22</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>24</v>
@@ -8255,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>30</v>
@@ -8278,7 +8278,7 @@
         <v>22</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>24</v>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>30</v>
@@ -8328,7 +8328,7 @@
         <v>22</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>24</v>
@@ -8355,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q112" s="2" t="s">
         <v>30</v>
@@ -8378,7 +8378,7 @@
         <v>22</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>24</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>30</v>
@@ -8428,7 +8428,7 @@
         <v>22</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>24</v>
@@ -8455,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>30</v>
@@ -8478,7 +8478,7 @@
         <v>22</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>24</v>
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>30</v>
@@ -8528,7 +8528,7 @@
         <v>22</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>24</v>
@@ -8555,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>30</v>
@@ -8578,7 +8578,7 @@
         <v>22</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>24</v>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>30</v>
@@ -8628,7 +8628,7 @@
         <v>22</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>24</v>
@@ -8655,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q118" s="2" t="s">
         <v>30</v>
@@ -8678,7 +8678,7 @@
         <v>22</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>24</v>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q119" s="2" t="s">
         <v>30</v>
@@ -8728,7 +8728,7 @@
         <v>22</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>24</v>
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q120" s="2" t="s">
         <v>30</v>
@@ -8778,7 +8778,7 @@
         <v>22</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>24</v>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q121" s="2" t="s">
         <v>30</v>
@@ -8822,13 +8822,13 @@
         <v>37</v>
       </c>
       <c r="D122" t="s">
-        <v>157</v>
+        <v>629</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>24</v>
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>30</v>
@@ -8872,13 +8872,13 @@
         <v>37</v>
       </c>
       <c r="D123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>24</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q123" s="2" t="s">
         <v>30</v>
@@ -8922,13 +8922,13 @@
         <v>37</v>
       </c>
       <c r="D124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>24</v>
@@ -8955,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q124" s="2" t="s">
         <v>30</v>
@@ -8972,13 +8972,13 @@
         <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>24</v>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q125" s="2" t="s">
         <v>30</v>
@@ -9022,13 +9022,13 @@
         <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>24</v>
@@ -9055,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>30</v>
@@ -9072,13 +9072,13 @@
         <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>24</v>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>30</v>
@@ -9122,13 +9122,13 @@
         <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>24</v>
@@ -9155,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>30</v>
@@ -9172,13 +9172,13 @@
         <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>24</v>
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q129" s="2" t="s">
         <v>30</v>
@@ -9222,13 +9222,13 @@
         <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>24</v>
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q130" s="2" t="s">
         <v>30</v>
@@ -9272,13 +9272,13 @@
         <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>24</v>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q131" s="2" t="s">
         <v>30</v>
@@ -9322,13 +9322,13 @@
         <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>24</v>
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>30</v>
@@ -9372,13 +9372,13 @@
         <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>24</v>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>30</v>
@@ -9422,13 +9422,13 @@
         <v>37</v>
       </c>
       <c r="D134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>24</v>
@@ -9455,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>30</v>
@@ -9472,13 +9472,13 @@
         <v>37</v>
       </c>
       <c r="D135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>24</v>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q135" s="2" t="s">
         <v>30</v>
@@ -9522,13 +9522,13 @@
         <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>24</v>
@@ -9555,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q136" s="2" t="s">
         <v>30</v>
@@ -9572,13 +9572,13 @@
         <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>24</v>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>30</v>
@@ -9622,13 +9622,13 @@
         <v>37</v>
       </c>
       <c r="D138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>24</v>
@@ -9655,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q138" s="2" t="s">
         <v>30</v>
@@ -9672,13 +9672,13 @@
         <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>24</v>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>30</v>
@@ -9722,13 +9722,13 @@
         <v>37</v>
       </c>
       <c r="D140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>24</v>
@@ -9755,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>30</v>
@@ -9772,13 +9772,13 @@
         <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>24</v>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>30</v>
@@ -9822,13 +9822,13 @@
         <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>24</v>
@@ -9855,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>30</v>
@@ -9872,13 +9872,13 @@
         <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>24</v>
@@ -9905,7 +9905,7 @@
         <v>1</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q143" s="2" t="s">
         <v>30</v>
@@ -9922,13 +9922,13 @@
         <v>37</v>
       </c>
       <c r="D144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>24</v>
@@ -9955,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>30</v>
@@ -9972,13 +9972,13 @@
         <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>24</v>
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>30</v>
@@ -10022,13 +10022,13 @@
         <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>24</v>
@@ -10055,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>30</v>
@@ -10072,13 +10072,13 @@
         <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>24</v>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>30</v>
@@ -10122,13 +10122,13 @@
         <v>37</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>24</v>
@@ -10155,7 +10155,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q148" s="2" t="s">
         <v>30</v>
@@ -10172,13 +10172,13 @@
         <v>37</v>
       </c>
       <c r="D149" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>24</v>
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>30</v>
@@ -10222,13 +10222,13 @@
         <v>37</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>24</v>
@@ -10255,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>30</v>
@@ -10272,13 +10272,13 @@
         <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>24</v>
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>30</v>
@@ -10322,13 +10322,13 @@
         <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>24</v>
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>30</v>
@@ -10372,13 +10372,13 @@
         <v>37</v>
       </c>
       <c r="D153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>24</v>
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>30</v>
@@ -10422,13 +10422,13 @@
         <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>24</v>
@@ -10455,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>30</v>
@@ -10472,13 +10472,13 @@
         <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>24</v>
@@ -10505,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q155" s="2" t="s">
         <v>30</v>
@@ -10522,13 +10522,13 @@
         <v>37</v>
       </c>
       <c r="D156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>24</v>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="P156" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q156" s="2" t="s">
         <v>30</v>
@@ -10572,13 +10572,13 @@
         <v>37</v>
       </c>
       <c r="D157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>24</v>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="P157" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q157" s="2" t="s">
         <v>30</v>
@@ -10622,13 +10622,13 @@
         <v>37</v>
       </c>
       <c r="D158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>24</v>
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q158" s="2" t="s">
         <v>30</v>
@@ -10672,13 +10672,13 @@
         <v>37</v>
       </c>
       <c r="D159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>24</v>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q159" s="2" t="s">
         <v>30</v>
@@ -10722,13 +10722,13 @@
         <v>37</v>
       </c>
       <c r="D160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>24</v>
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q160" s="2" t="s">
         <v>30</v>
@@ -10772,13 +10772,13 @@
         <v>37</v>
       </c>
       <c r="D161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>24</v>
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="P161" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q161" s="2" t="s">
         <v>30</v>
@@ -10822,13 +10822,13 @@
         <v>37</v>
       </c>
       <c r="D162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>24</v>
@@ -10855,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="P162" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q162" s="2" t="s">
         <v>30</v>
@@ -10872,13 +10872,13 @@
         <v>37</v>
       </c>
       <c r="D163" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>24</v>
@@ -10905,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="P163" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q163" s="2" t="s">
         <v>30</v>
@@ -10922,13 +10922,13 @@
         <v>37</v>
       </c>
       <c r="D164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>24</v>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="P164" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q164" s="2" t="s">
         <v>30</v>
@@ -10972,13 +10972,13 @@
         <v>37</v>
       </c>
       <c r="D165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>24</v>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q165" s="2" t="s">
         <v>30</v>
@@ -11022,13 +11022,13 @@
         <v>37</v>
       </c>
       <c r="D166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>24</v>
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q166" s="2" t="s">
         <v>30</v>
@@ -11072,13 +11072,13 @@
         <v>37</v>
       </c>
       <c r="D167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>24</v>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Q167" s="2" t="s">
         <v>30</v>
@@ -11122,13 +11122,13 @@
         <v>37</v>
       </c>
       <c r="D168" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>24</v>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q168" s="2" t="s">
         <v>30</v>
@@ -11172,13 +11172,13 @@
         <v>37</v>
       </c>
       <c r="D169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>24</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="P169" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q169" s="2" t="s">
         <v>30</v>
@@ -11222,13 +11222,13 @@
         <v>37</v>
       </c>
       <c r="D170" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>24</v>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Q170" s="2" t="s">
         <v>30</v>
@@ -11272,13 +11272,13 @@
         <v>37</v>
       </c>
       <c r="D171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>24</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="P171" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q171" s="2" t="s">
         <v>30</v>
@@ -11322,13 +11322,13 @@
         <v>37</v>
       </c>
       <c r="D172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>24</v>
@@ -11355,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q172" s="2" t="s">
         <v>30</v>
@@ -11372,13 +11372,13 @@
         <v>37</v>
       </c>
       <c r="D173" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>24</v>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q173" s="2" t="s">
         <v>30</v>
@@ -11422,13 +11422,13 @@
         <v>37</v>
       </c>
       <c r="D174" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>24</v>
@@ -11455,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q174" s="2" t="s">
         <v>30</v>
@@ -11472,13 +11472,13 @@
         <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>24</v>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q175" s="2" t="s">
         <v>30</v>
@@ -11522,13 +11522,13 @@
         <v>37</v>
       </c>
       <c r="D176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>24</v>
@@ -11555,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q176" s="2" t="s">
         <v>30</v>
@@ -11572,13 +11572,13 @@
         <v>37</v>
       </c>
       <c r="D177" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>24</v>
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q177" s="2" t="s">
         <v>30</v>
@@ -11622,13 +11622,13 @@
         <v>37</v>
       </c>
       <c r="D178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>24</v>
@@ -11655,7 +11655,7 @@
         <v>1</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q178" s="2" t="s">
         <v>30</v>
@@ -11672,13 +11672,13 @@
         <v>37</v>
       </c>
       <c r="D179" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>24</v>
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="P179" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q179" s="2" t="s">
         <v>30</v>
@@ -11722,13 +11722,13 @@
         <v>37</v>
       </c>
       <c r="D180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>24</v>
@@ -11755,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q180" s="2" t="s">
         <v>30</v>
@@ -11772,13 +11772,13 @@
         <v>37</v>
       </c>
       <c r="D181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>24</v>
@@ -11805,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q181" s="2" t="s">
         <v>30</v>
@@ -11822,13 +11822,13 @@
         <v>37</v>
       </c>
       <c r="D182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>24</v>
@@ -11855,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q182" s="2" t="s">
         <v>30</v>
@@ -11872,13 +11872,13 @@
         <v>37</v>
       </c>
       <c r="D183" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>24</v>
@@ -11905,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q183" s="2" t="s">
         <v>30</v>
@@ -11922,13 +11922,13 @@
         <v>37</v>
       </c>
       <c r="D184" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>24</v>
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q184" s="2" t="s">
         <v>30</v>
@@ -11972,13 +11972,13 @@
         <v>37</v>
       </c>
       <c r="D185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>24</v>
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q185" s="2" t="s">
         <v>30</v>
@@ -12022,13 +12022,13 @@
         <v>37</v>
       </c>
       <c r="D186" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>24</v>
@@ -12055,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q186" s="2" t="s">
         <v>30</v>
@@ -12072,13 +12072,13 @@
         <v>37</v>
       </c>
       <c r="D187" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>24</v>
@@ -12105,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="P187" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q187" s="2" t="s">
         <v>30</v>
@@ -12122,13 +12122,13 @@
         <v>37</v>
       </c>
       <c r="D188" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>24</v>
@@ -12155,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q188" s="2" t="s">
         <v>30</v>
@@ -12172,13 +12172,13 @@
         <v>37</v>
       </c>
       <c r="D189" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>24</v>
@@ -12205,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q189" s="2" t="s">
         <v>30</v>
@@ -12222,13 +12222,13 @@
         <v>37</v>
       </c>
       <c r="D190" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>24</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Q190" s="2" t="s">
         <v>30</v>
@@ -12272,13 +12272,13 @@
         <v>37</v>
       </c>
       <c r="D191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>24</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q191" s="2" t="s">
         <v>30</v>
@@ -12322,13 +12322,13 @@
         <v>37</v>
       </c>
       <c r="D192" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>24</v>
@@ -12355,7 +12355,7 @@
         <v>1</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="Q192" s="2" t="s">
         <v>30</v>
@@ -12372,13 +12372,13 @@
         <v>37</v>
       </c>
       <c r="D193" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>24</v>
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="P193" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q193" s="2" t="s">
         <v>30</v>
@@ -12422,13 +12422,13 @@
         <v>37</v>
       </c>
       <c r="D194" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>24</v>
@@ -12455,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q194" s="2" t="s">
         <v>30</v>
@@ -12472,13 +12472,13 @@
         <v>37</v>
       </c>
       <c r="D195" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>24</v>
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="P195" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q195" s="2" t="s">
         <v>30</v>
@@ -12522,13 +12522,13 @@
         <v>37</v>
       </c>
       <c r="D196" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>24</v>
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Q196" s="2" t="s">
         <v>30</v>
@@ -12572,13 +12572,13 @@
         <v>37</v>
       </c>
       <c r="D197" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>24</v>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Q197" s="2" t="s">
         <v>30</v>
@@ -12622,13 +12622,13 @@
         <v>37</v>
       </c>
       <c r="D198" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>24</v>
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q198" s="2" t="s">
         <v>30</v>
@@ -12672,13 +12672,13 @@
         <v>37</v>
       </c>
       <c r="D199" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>24</v>
@@ -12705,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q199" s="2" t="s">
         <v>30</v>
@@ -12722,13 +12722,13 @@
         <v>37</v>
       </c>
       <c r="D200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>24</v>
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q200" s="2" t="s">
         <v>30</v>
@@ -12772,13 +12772,13 @@
         <v>37</v>
       </c>
       <c r="D201" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>24</v>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="P201" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q201" s="2" t="s">
         <v>30</v>
